--- a/spark/experiments/results-sql-g2.1.csv/g2.1-2t.xlsx
+++ b/spark/experiments/results-sql-g2.1.csv/g2.1-2t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2-t-1.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.1.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -153,13 +153,7 @@
     <t>Total time (ms)</t>
   </si>
   <si>
-    <t>mean-exp (ns)</t>
-  </si>
-  <si>
     <t>deviation-exp (ns)</t>
-  </si>
-  <si>
-    <t>mean-warmup  (ns)</t>
   </si>
   <si>
     <t>deviation-run (ns)</t>
@@ -172,6 +166,18 @@
   </si>
   <si>
     <t>g2.2-2t</t>
+  </si>
+  <si>
+    <t>percentile95-exp (ns)</t>
+  </si>
+  <si>
+    <t>percentile95-exp (s)</t>
+  </si>
+  <si>
+    <t>perc-warmup  (ns)</t>
+  </si>
+  <si>
+    <t>percentile95-warmup (s)</t>
   </si>
 </sst>
 </file>
@@ -935,11 +941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-705849360"/>
-        <c:axId val="-705847184"/>
+        <c:axId val="-1638931472"/>
+        <c:axId val="-1638932560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-705849360"/>
+        <c:axId val="-1638931472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,12 +1001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705847184"/>
+        <c:crossAx val="-1638932560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-705847184"/>
+        <c:axId val="-1638932560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705849360"/>
+        <c:crossAx val="-1638931472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1960,16 +1966,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -4951,7 +4958,7 @@
         <v>879159194</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -5016,18 +5023,18 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
-        <f>AVERAGE(C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8,C5,C4)</f>
-        <v>3463867968.4000001</v>
+        <f>PERCENTILE((C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C5,C4),0.95)</f>
+        <v>1554416717.2999997</v>
       </c>
       <c r="D42" s="1">
-        <v>1220318066.4000001</v>
+        <v>1343599472.5</v>
       </c>
       <c r="E42" s="1">
         <f>C42-D42</f>
-        <v>2243549902</v>
+        <v>210817244.79999971</v>
       </c>
       <c r="H42">
         <f>AVERAGE(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
@@ -5040,7 +5047,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>AVEDEV(C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8,C5,C4)</f>
@@ -5060,18 +5067,18 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C44" s="1">
-        <f>AVERAGE(C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6,C3,C2)</f>
-        <v>92433703828</v>
+        <f>PERCENTILE((C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6),0.95)</f>
+        <v>99357644473.649994</v>
       </c>
       <c r="D44" s="1">
-        <v>92458548175.949997</v>
+        <v>100275813001.5</v>
       </c>
       <c r="E44" s="1">
         <f>C44-D44</f>
-        <v>-24844347.949996948</v>
+        <v>-918168527.8500061</v>
       </c>
       <c r="H44">
         <f>AVERAGE(H39,H38,H35,H34,H31,H30,H27,H26,H23,H22,H19,H18,H15,H14,H11,H10,H7,H6,H3,H2)</f>
@@ -5084,7 +5091,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
         <f>AVEDEV(C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6,C3,C2)</f>
@@ -5132,7 +5139,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <f>B46/1000/60</f>
@@ -5160,7 +5167,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <f>B47*60</f>
@@ -5176,6 +5183,30 @@
       <c r="E48" s="2">
         <f>C48-D48</f>
         <v>44.257308656000077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <f>C42/1000/1000/1000</f>
+        <v>1.5544167172999996</v>
+      </c>
+      <c r="D49">
+        <v>1.3435994724999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <f>C44/1000/1000/1000</f>
+        <v>99.357644473649998</v>
+      </c>
+      <c r="D50">
+        <v>100.2758130015</v>
       </c>
     </row>
   </sheetData>
